--- a/configs/skills.xlsx
+++ b/configs/skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kingdom-rush\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DreamCC\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5B61EC-1CBA-4D78-BEF6-A357D9AF36D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3527CCC1-D24B-44E2-A770-BAC8BCBA8665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="4065" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27924" yWindow="1764" windowWidth="23040" windowHeight="13572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -743,29 +743,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="16" style="2" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="2" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -841,7 +841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -879,26 +879,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L5" s="2">
         <v>100</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -917,14 +917,14 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="8" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
